--- a/biology/Zoologie/Anoplophora_chinensis/Anoplophora_chinensis.xlsx
+++ b/biology/Zoologie/Anoplophora_chinensis/Anoplophora_chinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anoplophora chinensis (capricorne asiatique des agrumes) est une espèce d'insectes coléoptères de la famille des Cerambycidae originaire d'Asie orientale devenue envahissante en Amérique du Nord et en Europe.
 C'est une espèce xylophage, très polyphage, qui attaque de nombreuses espèces d'arbres feuillus, notamment les agrumes (Citrus spp.), érables, hêtres, peupliers, platanes, pommiers, etc.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago, qui mesure environ 3 cm sans les antennes, est noir brillant avec des taches claires de nombre et de formes variables.
 Les antennes à 11 segments sont annelées de taches blanches à reflets bleutés. Elles sont plus longues que le corps (2,5 fois plus chez le mâle et 1,3 fois plus chez la femelle).
@@ -546,10 +560,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition d'origine d'Anoplophora chinensis se situe en Asie de l'Est et comprend : la Chine, le Japon, le Myanmar (Birmanie) et le Vietnam.
-L'espèce a été introduite accidentellement en Europe occidentale (France; Allemagne, Italie, Pays-Bas, Royaume-Uni), ainsi qu'aux États-Unis[1].
+L'espèce a été introduite accidentellement en Europe occidentale (France; Allemagne, Italie, Pays-Bas, Royaume-Uni), ainsi qu'aux États-Unis.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (26 septembre 2013)[2] et ISSG (Invasive species specialists group)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (26 septembre 2013) et ISSG (Invasive species specialists group) :
 Anoplophora chinensis Bates
 Anoplophora chinensis Breuning, 1944
 Anoplophora malasiaca malasiaca  Samuelson, 1965
@@ -636,9 +654,11 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anoplophora chinensis apparaît dans la série de jeux vidéo Animal Crossing, notamment dans Animal Crossing New Horizons sous le nom de « capricorne des agrumes »[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anoplophora chinensis apparaît dans la série de jeux vidéo Animal Crossing, notamment dans Animal Crossing New Horizons sous le nom de « capricorne des agrumes ».
 </t>
         </is>
       </c>
